--- a/trend_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
+++ b/trend_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.06653798084414921</v>
+        <v>0.933462019155851</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.928270123642949</v>
+        <v>0.071729876357051</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.178540826024538</v>
+        <v>0.821459173975462</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.989778613703718</v>
+        <v>0.010221386296282</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3074,14 +3074,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.938260638047228</v>
+        <v>0.0028287692292282</v>
       </c>
       <c r="G30" t="n">
-        <v>0.103626943005181</v>
+        <v>0.0063694267515923</v>
       </c>
       <c r="H30" t="n">
-        <v>0.585492227979275</v>
+        <v>0.668789808917197</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4.27</v>
+        <v>1.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0585618941041221</v>
+        <v>0.0599753694581281</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0057786267043415</v>
+        <v>0.0157041715441316</v>
       </c>
       <c r="M30" t="n">
-        <v>0.112754203598102</v>
+        <v>0.115104445759757</v>
       </c>
       <c r="N30" t="n">
-        <v>1.37147292983893</v>
+        <v>3.99835796387521</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3165,46 +3165,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.758868871015497</v>
+        <v>0.016243196802984</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.591194968553459</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>0.008</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.0633812521265736</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.97136142487325e-05</v>
+        <v>-0.137106595561878</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0023207038650089</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-1.40847226947941</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3256,46 +3256,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8145031492628499</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="n">
-        <v>0.014218009478673</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.440758293838863</v>
+        <v>0.8109756097560979</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>44</v>
+        <v>10.74</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.250858516483516</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.09983497455882</v>
+        <v>-0.0200045641259697</v>
       </c>
       <c r="M32" t="n">
-        <v>0.171327173775046</v>
+        <v>0.0219368827549663</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5701329920079919</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3347,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.948022160774016</v>
+        <v>0.482105611407271</v>
       </c>
       <c r="G33" t="n">
-        <v>0.934010152284264</v>
+        <v>0.0352941176470588</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0913705583756345</v>
+        <v>0.0764705882352941</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,46 +3438,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.362632646063269</v>
+        <v>0.884309859634561</v>
       </c>
       <c r="G34" t="n">
-        <v>0.104166666666667</v>
+        <v>0.0058823529411764</v>
       </c>
       <c r="H34" t="n">
-        <v>0.520833333333333</v>
+        <v>0.482352941176471</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.055</v>
+        <v>44</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.6662141335067781</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0003209085360397</v>
+        <v>-2.00686813186813</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0007754730258955999</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.51412303069722</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3529,43 +3529,43 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.532735700826344</v>
+        <v>0.961859897166786</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.938271604938272</v>
       </c>
       <c r="H35" t="n">
-        <v>0.451456310679612</v>
+        <v>0.08641975308641971</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0615</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0008355637539812</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0006054441582275</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3620,46 +3620,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.976773289990136</v>
+        <v>0.3173772324683</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="H36" t="n">
-        <v>0.574162679425837</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7</v>
+        <v>0.001</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0104462468828367</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0200686813186813</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0025269213989816</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.49232098326238</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3711,14 +3711,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3726,31 +3726,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.231216363225238</v>
+        <v>0.0285875021481828</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.102564102564103</v>
       </c>
       <c r="H37" t="n">
+        <v>0.596153846153846</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>0.625</v>
+        <v>0.054</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0236226980344377</v>
+        <v>0.0010059687335646</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0877226246035369</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0063711118860545</v>
+        <v>0.0018035709225447</v>
       </c>
       <c r="N37" t="n">
-        <v>-3.77963168551002</v>
+        <v>1.86290506215668</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3788,7 +3788,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3798,11 +3802,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3813,31 +3817,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.40324797025367</v>
+        <v>0.396964290639858</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.58125</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>131.43</v>
+        <v>7.57</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.26098865825597</v>
+        <v>-0.0013932887700535</v>
       </c>
       <c r="L38" t="n">
-        <v>-14.2375227285564</v>
+        <v>-0.0114368680373855</v>
       </c>
       <c r="M38" t="n">
-        <v>5.40444638495909</v>
+        <v>0.009239793035047499</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.959437463483197</v>
+        <v>-0.0184053998686073</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3846,7 +3850,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3885,14 +3889,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3900,31 +3904,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>0.07206654343061041</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0411764705882353</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.494117647058824</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>7.51</v>
+        <v>0.0565</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0021189973943531</v>
+        <v>0.0006636535250651</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.322808104058262</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.213763835483848</v>
+        <v>0.0015516067793064</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0282156776877921</v>
+        <v>1.17460800896485</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3933,7 +3937,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3962,7 +3966,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3972,14 +3980,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3987,31 +3995,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.992481201417558</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0176470588235294</v>
       </c>
       <c r="H40" t="n">
+        <v>0.376470588235294</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>0.6365</v>
+        <v>0.12</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.008209128694581199</v>
+        <v>-0.0013850128751437</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0187595600843246</v>
+        <v>-0.0025127085926493</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0004593973488535</v>
+        <v>-0.0001056167184193</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.28972956709839</v>
+        <v>-1.15417739595315</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4020,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4049,7 +4057,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4059,11 +4071,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4074,31 +4086,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.764648503744295</v>
+        <v>0.958903410840073</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8</v>
+        <v>0.194117647058824</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>132.215</v>
+        <v>0.011</v>
       </c>
       <c r="K41" t="n">
-        <v>1.21230440967283</v>
+        <v>-9.403964984552e-05</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.744366498885948</v>
+        <v>-0.0002395644388231</v>
       </c>
       <c r="M41" t="n">
-        <v>2.48927839881586</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.916918965074183</v>
+        <v>-0.854905907686546</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4107,7 +4119,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4136,7 +4148,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4146,14 +4162,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4161,31 +4177,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>0.714553190081046</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.613095238095238</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.515</v>
+        <v>0.68</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0017318634423897</v>
+        <v>-0.0050180652408415</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.036155796453029</v>
+        <v>-0.0175723910454342</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0486095599259254</v>
+        <v>0.0066538087095576</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0230454217217528</v>
+        <v>-0.737950770711995</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4194,7 +4210,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4223,7 +4239,1257 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.938260638047228</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.103626943005181</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.585492227979275</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0585618941041221</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0057786267043415</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.112754203598102</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.37147292983893</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.758868871015497</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0533980582524272</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-3.97136142487325e-05</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8145031492628499</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.014218009478673</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.440758293838863</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>44</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.250858516483516</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-1.09983497455882</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.171327173775046</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.5701329920079919</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.948022160774016</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.934010152284264</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0913705583756345</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.362632646063269</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0003209085360397</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0007754730258955999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.532735700826344</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0485436893203883</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.451456310679612</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0615</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0008355637539812</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0006054441582275</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.976773289990136</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.574162679425837</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0104462468828367</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.0200686813186813</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.0025269213989816</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.49232098326238</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0236226980344377</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0877226246035369</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0063711118860545</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-3.77963168551002</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>131.43</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1.26098865825597</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-14.2375227285564</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.40444638495909</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.959437463483197</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0021189973943531</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.322808104058262</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.213763835483848</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0282156776877921</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.6365</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.008209128694581199</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0187595600843246</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0004593973488535</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.28972956709839</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.764648503744295</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>132.215</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.21230440967283</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.744366498885948</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.48927839881586</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.916918965074183</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0017318634423897</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.036155796453029</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0486095599259254</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.0230454217217528</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.918284881764469</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>131.43</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.21230440967283</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.383039708959883</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.1798486870105</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.922395503060816</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
+++ b/trend_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.439914580005915</v>
+        <v>0.144959226971285</v>
       </c>
       <c r="G2" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="H2" t="n">
-        <v>0.771929824561403</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0186352040816326</v>
+        <v>0.116649210164835</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.285559617424218</v>
+        <v>-0.0981300402607039</v>
       </c>
       <c r="M2" t="n">
-        <v>0.198312307882075</v>
+        <v>0.492867418643326</v>
       </c>
       <c r="N2" t="n">
-        <v>1.06486880466472</v>
+        <v>6.30536271161271</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6763816286779309</v>
+        <v>0.999632618815683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0181818181818182</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>0.792452830188679</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0420794930875576</v>
+        <v>0.506324548476107</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.226863354037267</v>
+        <v>0.279047234871291</v>
       </c>
       <c r="M3" t="n">
-        <v>0.315415775051476</v>
+        <v>0.736029920177517</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0018926925609</v>
+        <v>12.0553463922883</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.933462019155851</v>
+        <v>0.376288138426792</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.925925925925926</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.96</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0602060439560445</v>
+        <v>-0.0150515109890107</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0067630001387068</v>
+        <v>-0.06875068739684161</v>
       </c>
       <c r="M4" t="n">
-        <v>0.11638700529322</v>
+        <v>0.0601326907229615</v>
       </c>
       <c r="N4" t="n">
-        <v>0.549325218577048</v>
+        <v>-0.137331304644258</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.203850803227698</v>
+        <v>0.120639222046109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0178571428571429</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.196428571428571</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.008</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0006975058131067999</v>
+        <v>0.0005940027447056</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.969146654985844</v>
       </c>
       <c r="G6" t="n">
         <v>0.0178571428571429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.517857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>38.5</v>
+        <v>34</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-4.5154532967033</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.99297336943119</v>
+        <v>-10.5211277709918</v>
       </c>
       <c r="M6" t="n">
-        <v>5.10821140335874</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-13.2807449903038</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,10 +1029,10 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.9803921568627449</v>
+        <v>0.981481481481482</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.55394926642778</v>
+        <v>0.997441174302336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="H8" t="n">
         <v>0.107142857142857</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.218359334162528</v>
+        <v>0.322206166884906</v>
       </c>
       <c r="G9" t="n">
         <v>0.0178571428571429</v>
       </c>
       <c r="H9" t="n">
-        <v>0.767857142857143</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0545</v>
+        <v>0.0565</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0031104079042784</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0040337658431921</v>
+        <v>-0.0029871242635075</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0083630623938821</v>
+        <v>0.0059033946558706</v>
       </c>
       <c r="N9" t="n">
-        <v>5.70717046656599</v>
+        <v>0.887994748614218</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.071729876357051</v>
+        <v>0.09321903117557991</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.725490196078431</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0329548872180449</v>
+        <v>-0.0389839901477832</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0743560725538374</v>
+        <v>-0.0829133541942941</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003156341415024</v>
+        <v>0.0109648220749605</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.43764790462211</v>
+        <v>-0.5197865353037761</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0536305797230569</v>
+        <v>0.591519339142304</v>
       </c>
       <c r="G11" t="n">
         <v>0.0178571428571429</v>
       </c>
       <c r="H11" t="n">
-        <v>0.660714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0050034246575342</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0001108837981028</v>
+        <v>-0.0040137362637362</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009015970747451</v>
+        <v>0.0039902171852772</v>
       </c>
       <c r="N11" t="n">
-        <v>8.339041095890421</v>
+        <v>-0.764521193092622</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,46 +1452,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.751038535881301</v>
+        <v>0.92371249228105</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.142857142857143</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.0033447802197802</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.009938775510203999</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>-3.04070929070928</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,46 +1543,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.562751679436124</v>
+        <v>0.0535049613654863</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.214285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.11</v>
+        <v>0.011</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.0003537570916397</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0050130514021787</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0033216626690693</v>
+        <v>0.000862455726092</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.21597356036132</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0015406992220019</v>
+        <v>0.999772995647503</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.267857142857143</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.011</v>
+        <v>0.57</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0009317602040816</v>
+        <v>-0.08723436113575871</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004181165970873</v>
+        <v>-0.137412507421821</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001337912087912</v>
+        <v>-0.0460405076744555</v>
       </c>
       <c r="N14" t="n">
-        <v>8.47054730983303</v>
+        <v>-15.3042738834664</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.439221288501481</v>
+        <v>0.0124271058557625</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H15" t="n">
-        <v>0.839285714285714</v>
+        <v>0.728070175438597</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.61</v>
+        <v>1.675</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.075257554945055</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0580327953608713</v>
+        <v>0.0150425124552992</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0523423632537246</v>
+        <v>0.166561230872707</v>
       </c>
       <c r="N15" t="n">
-        <v>1.64497387858044</v>
+        <v>4.49298835492866</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.710134607099112</v>
+        <v>0.156762472138156</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0087719298245614</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="H16" t="n">
-        <v>0.736842105263158</v>
+        <v>0.69811320754717</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.825</v>
+        <v>4.54</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0343858784893268</v>
+        <v>-0.0813794233289646</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.126118614558028</v>
+        <v>-0.23520870742429</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0294283288504897</v>
+        <v>0.0481976200666916</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.88415772544256</v>
+        <v>-1.79249831121067</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,46 +1907,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0016037838106689</v>
+        <v>0.821272087047463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0754716981132075</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.688679245283019</v>
+        <v>0.858407079646018</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.54</v>
+        <v>10.87</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.24020825721593</v>
+        <v>0.0191099863512284</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.351911348434112</v>
+        <v>-0.0116410383403292</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.103324404013069</v>
+        <v>0.0459477507220638</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.29093077568128</v>
+        <v>0.175804842237612</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.653637198448367</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0344827586206897</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.821459173975462</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.849557522123894</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.75</v>
+        <v>0.008</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0242893879493374</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0100139634654035</v>
+        <v>-0.0001288359788359</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0583021160984274</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.225947794877557</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,46 +2089,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.604507309908704</v>
+        <v>0.979311442195806</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09482758620689651</v>
+        <v>0.422413793103448</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008500000000000001</v>
+        <v>39</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.66173794358508</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0001209789058944</v>
+        <v>-3.0103021978022</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-4.26086652201302</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,47 +2180,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.836078548263652</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.0086206896551724</v>
+        <v>0.963302752293578</v>
       </c>
       <c r="H20" t="n">
-        <v>0.448275862068966</v>
+        <v>0.06422018348623849</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>44</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.998632946001367</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-2.55227810811214</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.356854627511868</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.26962033182129</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2228,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2247,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2259,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,24 +2270,36 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.94117995164937</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.963302752293578</v>
+        <v>0.663793103448276</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06422018348623849</v>
+        <v>0.0775862068965517</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2350,14 +2350,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2365,31 +2365,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.837367613682595</v>
+        <v>0.0009465028078448</v>
       </c>
       <c r="G22" t="n">
-        <v>0.577586206896552</v>
+        <v>0.112068965517241</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0775862068965517</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.051</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0024172181652213</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0011966188115454</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0038774190114079</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.73964346121835</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2456,31 +2456,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0005126994829837001</v>
+        <v>0.001070612126694</v>
       </c>
       <c r="G23" t="n">
-        <v>0.129310344827586</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.681034482758621</v>
+        <v>0.614678899082569</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0503</v>
+        <v>7.55</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0025005705157462</v>
+        <v>-0.0238552375264826</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0014087110726982</v>
+        <v>-0.0380299975602193</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0040489497040347</v>
+        <v>-0.0111031366296251</v>
       </c>
       <c r="N23" t="n">
-        <v>4.97131315257701</v>
+        <v>-0.315963410946789</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2518,11 +2518,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2532,14 +2528,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2547,31 +2543,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.010221386296282</v>
+        <v>0.0121950057267778</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H24" t="n">
-        <v>0.63302752293578</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.58</v>
+        <v>0.055</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0190022532711581</v>
+        <v>0.0019991789819376</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0327976756081641</v>
+        <v>0.000669118462904</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0057339089481945</v>
+        <v>0.0039173351052049</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.250689357139289</v>
+        <v>3.63487087625019</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2609,7 +2605,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0011799284050956</v>
+        <v>0.9529253608499541</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0517241379310345</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H25" t="n">
-        <v>0.508620689655172</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.055</v>
+        <v>0.116</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0029816326530612</v>
+        <v>-0.0013940839694656</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0012238668480256</v>
+        <v>-0.0040055959057454</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0043887340837372</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.42115027829314</v>
+        <v>-1.20179652540142</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2721,23 +2721,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.915229009051305</v>
+        <v>0.328307745309221</v>
       </c>
       <c r="G26" t="n">
-        <v>0.517543859649123</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.12280701754386</v>
+        <v>0.163793103448276</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.011</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0001688626907073</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2801,46 +2801,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.607472897822243</v>
+        <v>0.979337665325814</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0086206896551724</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.362068965517241</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.112</v>
+        <v>0.625</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.0251126814362108</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.002246924128503</v>
+        <v>-0.0517194447296085</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0014282000465346</v>
+        <v>-0.0055079373649683</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>-4.01802902979373</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2892,14 +2892,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2907,31 +2907,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0433924476358908</v>
+        <v>0.0001432476122084</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0059171597633136</v>
       </c>
       <c r="H28" t="n">
-        <v>0.172413793103448</v>
+        <v>0.650887573964497</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.011</v>
+        <v>1.6</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001519030043199</v>
+        <v>0.07319308583667419</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0381128657536106</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0003334094020994</v>
+        <v>0.125570949973786</v>
       </c>
       <c r="N28" t="n">
-        <v>1.38093640290823</v>
+        <v>4.57456786479214</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2998,31 +2998,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.311253228637672</v>
+        <v>0.081334399680096</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H29" t="n">
-        <v>0.684210526315789</v>
+        <v>0.580246913580247</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.665</v>
+        <v>4.675</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0065020026702269</v>
+        <v>-0.01521875</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0161865847448567</v>
+        <v>-0.0880851127353119</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0251559366531912</v>
+        <v>0.0485928983403143</v>
       </c>
       <c r="N29" t="n">
-        <v>0.977744762440145</v>
+        <v>-0.325534759358289</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0028287692292282</v>
+        <v>0.775309295241268</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0063694267515923</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.668789808917197</v>
+        <v>0.782352941176471</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.5</v>
+        <v>10.795</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0599753694581281</v>
+        <v>0.0125257201646091</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0157041715441316</v>
+        <v>-0.0100370085410499</v>
       </c>
       <c r="M30" t="n">
-        <v>0.115104445759757</v>
+        <v>0.0303096615431265</v>
       </c>
       <c r="N30" t="n">
-        <v>3.99835796387521</v>
+        <v>0.116032609213609</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3176,35 +3176,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.016243196802984</v>
+        <v>0.597712496475739</v>
       </c>
       <c r="G31" t="n">
-        <v>0.119496855345912</v>
+        <v>0.0342857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.591194968553459</v>
+        <v>0.0742857142857143</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>4.5</v>
+        <v>0.008</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0633812521265736</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.137106595561878</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0023207038650089</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.40847226947941</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3267,35 +3267,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.927837205771963</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8109756097560979</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>10.74</v>
+        <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.692325577326331</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0200045641259697</v>
+        <v>-1.87932528635474</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0219368827549663</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.73081394331583</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3358,23 +3358,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.482105611407271</v>
+        <v>0.988464892254685</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0352941176470588</v>
+        <v>0.94047619047619</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0764705882352941</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,46 +3438,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.884309859634561</v>
+        <v>0.593581252732899</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0058823529411764</v>
+        <v>0.694610778443114</v>
       </c>
       <c r="H34" t="n">
-        <v>0.482352941176471</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>44</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.6662141335067781</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.00686813186813</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.51412303069722</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3529,46 +3529,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.961859897166786</v>
+        <v>0.0516935034869017</v>
       </c>
       <c r="G35" t="n">
-        <v>0.938271604938272</v>
+        <v>0.0958083832335329</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08641975308641971</v>
+        <v>0.574850299401198</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.054</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0007660258358662</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0015066316065352</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.4185663627153</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3631,35 +3631,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.3173772324683</v>
+        <v>0.1151104345165</v>
       </c>
       <c r="G36" t="n">
-        <v>0.673076923076923</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0641025641025641</v>
+        <v>0.560240963855422</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>7.565</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0071477495107632</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0165229351231963</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0025195279316943</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.09448446147737299</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3697,11 +3697,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3711,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3726,31 +3722,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0285875021481828</v>
+        <v>0.145425621612324</v>
       </c>
       <c r="G37" t="n">
-        <v>0.102564102564103</v>
+        <v>0.04</v>
       </c>
       <c r="H37" t="n">
-        <v>0.596153846153846</v>
+        <v>0.605714285714286</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.054</v>
+        <v>0.061</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0010059687335646</v>
+        <v>0.0005204836621193</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.000248477079692</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0018035709225447</v>
+        <v>0.0012541978537752</v>
       </c>
       <c r="N37" t="n">
-        <v>1.86290506215668</v>
+        <v>0.853251905113647</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3759,7 +3755,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3790,7 +3786,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3802,14 +3798,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3817,31 +3813,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.396964290639858</v>
+        <v>0.999523057186537</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H38" t="n">
-        <v>0.58125</v>
+        <v>0.365714285714286</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.57</v>
+        <v>0.12</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0013932887700535</v>
+        <v>-0.0019294113593104</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0114368680373855</v>
+        <v>-0.0031212306418903</v>
       </c>
       <c r="M38" t="n">
-        <v>0.009239793035047499</v>
+        <v>-0.0007893355724598</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0184053998686073</v>
+        <v>-1.60784279942539</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3850,7 +3846,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3879,7 +3875,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3889,46 +3889,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.965196488948533</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0228571428571429</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.188571428571429</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.07206654343061041</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.0411764705882353</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.494117647058824</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
-        <v>0.0565</v>
+        <v>0.011</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0006636535250651</v>
+        <v>-8.594117647058821e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-0.0002164693902602</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0015516067793064</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.17460800896485</v>
+        <v>-0.781283422459892</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3995,31 +3995,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.992481201417558</v>
+        <v>0.993793448541507</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0176470588235294</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.376470588235294</v>
+        <v>0.606936416184971</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0013850128751437</v>
+        <v>-0.0166173794358508</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0025127085926493</v>
+        <v>-0.026126498326942</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0001056167184193</v>
+        <v>-0.0052705432220666</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.15417739595315</v>
+        <v>-2.48020588594788</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4071,11 +4071,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4086,31 +4086,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.958903410840073</v>
+        <v>0.919983975755872</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.109947643979058</v>
       </c>
       <c r="H41" t="n">
-        <v>0.194117647058824</v>
+        <v>0.565445026178011</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>0.011</v>
+        <v>4.49</v>
       </c>
       <c r="K41" t="n">
-        <v>-9.403964984552e-05</v>
+        <v>0.0675316957210777</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0002395644388231</v>
+        <v>0.0085045932144442</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.128465960522553</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.854905907686546</v>
+        <v>1.5040466753024</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4162,46 +4162,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.985806331837852</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0388349514563107</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.714553190081046</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.613095238095238</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>0.68</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0050180652408415</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0175723910454342</v>
+        <v>-0.0001272605238787</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0066538087095576</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.737950770711995</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4253,14 +4253,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4268,31 +4268,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.938260638047228</v>
+        <v>0.963250890826198</v>
       </c>
       <c r="G43" t="n">
-        <v>0.103626943005181</v>
+        <v>0.014218009478673</v>
       </c>
       <c r="H43" t="n">
-        <v>0.585492227979275</v>
+        <v>0.42654028436019</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>4.27</v>
+        <v>41</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0585618941041221</v>
+        <v>-0.7147749510763211</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0057786267043415</v>
+        <v>-1.61261034759323</v>
       </c>
       <c r="M43" t="n">
-        <v>0.112754203598102</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.37147292983893</v>
+        <v>-1.74335353921054</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4355,29 +4355,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.758868871015497</v>
+        <v>0.9757759596097551</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.939086294416244</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.0862944162436548</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-3.97136142487325e-05</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4446,35 +4446,35 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8145031492628499</v>
+        <v>0.479283879346681</v>
       </c>
       <c r="G45" t="n">
-        <v>0.014218009478673</v>
+        <v>0.0885416666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>0.440758293838863</v>
+        <v>0.53125</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>44</v>
+        <v>0.056</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.250858516483516</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.09983497455882</v>
+        <v>-0.0006663464785712</v>
       </c>
       <c r="M45" t="n">
-        <v>0.171327173775046</v>
+        <v>0.0007870776334564</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.5701329920079919</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4537,32 +4537,32 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.948022160774016</v>
+        <v>0.57051983363317</v>
       </c>
       <c r="G46" t="n">
-        <v>0.934010152284264</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0913705583756345</v>
+        <v>0.532967032967033</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005</v>
+        <v>7.54</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-0.0077338001198716</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.0101281193742203</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4603,11 +4603,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4617,7 +4613,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4628,35 +4624,35 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.362632646063269</v>
+        <v>0.755386296717339</v>
       </c>
       <c r="G47" t="n">
-        <v>0.104166666666667</v>
+        <v>0.0388349514563107</v>
       </c>
       <c r="H47" t="n">
-        <v>0.520833333333333</v>
+        <v>0.567961165048544</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0.055</v>
+        <v>0.06225</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-0.00024838375456</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0003209085360397</v>
+        <v>-0.001134337384063</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0007754730258955999</v>
+        <v>0.0004530334335091</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>-0.399010047486014</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4665,7 +4661,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4696,7 +4692,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4704,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4719,35 +4715,35 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.532735700826344</v>
+        <v>0.999399945430556</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0485436893203883</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.451456310679612</v>
+        <v>0.559808612440191</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0615</v>
+        <v>0.65</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-0.0166173794358508</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0008355637539812</v>
+        <v>-0.0250057709146515</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0006054441582275</v>
+        <v>-0.0081504369755459</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>-2.55651991320781</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4756,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4787,7 +4783,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4799,14 +4795,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4814,31 +4810,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.976773289990136</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.574162679425837</v>
+        <v>0.8</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0104462468828367</v>
+        <v>0.0007314753004005</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0200686813186813</v>
+        <v>-0.0493394285519677</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0025269213989816</v>
+        <v>0.0110712531703329</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.49232098326238</v>
+        <v>0.117036048064086</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4843,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4876,11 +4872,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4890,7 +4882,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4917,19 +4909,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.625</v>
+        <v>131</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0236226980344377</v>
+        <v>-2.18106176279727</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0877226246035369</v>
+        <v>-14.2375227285564</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0063711118860545</v>
+        <v>3.07204945619494</v>
       </c>
       <c r="N50" t="n">
-        <v>-3.77963168551002</v>
+        <v>-1.66493264335669</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4977,7 +4969,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5004,19 +4996,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>131.43</v>
+        <v>7.553</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.26098865825597</v>
+        <v>-0.0355399526169461</v>
       </c>
       <c r="L51" t="n">
-        <v>-14.2375227285564</v>
+        <v>-0.322808104058262</v>
       </c>
       <c r="M51" t="n">
-        <v>5.40444638495909</v>
+        <v>0.106447153370013</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.959437463483197</v>
+        <v>-0.470540879345242</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5064,11 +5056,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5079,31 +5071,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.5</v>
+        <v>0.0439807371540401</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>7.51</v>
+        <v>0.6325</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0021189973943531</v>
+        <v>-0.0095391752577319</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.322808104058262</v>
+        <v>-0.0187544085058001</v>
       </c>
       <c r="M52" t="n">
-        <v>0.213763835483848</v>
+        <v>-0.0022923355201466</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0282156776877921</v>
+        <v>-1.50817000122244</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5112,7 +5104,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5151,7 +5143,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5166,31 +5158,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.326711047377659</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.6365</v>
+        <v>132.215</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.008209128694581199</v>
+        <v>-0.413646659116648</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0187595600843246</v>
+        <v>-1.44798254740543</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0004593973488535</v>
+        <v>1.63267110380146</v>
       </c>
       <c r="N53" t="n">
-        <v>-1.28972956709839</v>
+        <v>-0.312859100039063</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5199,7 +5191,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5238,7 +5230,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -5253,31 +5245,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.764648503744295</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>132.215</v>
+        <v>7.525</v>
       </c>
       <c r="K54" t="n">
-        <v>1.21230440967283</v>
+        <v>0.0050171703296702</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.744366498885948</v>
+        <v>-0.0221172207500432</v>
       </c>
       <c r="M54" t="n">
-        <v>2.48927839881586</v>
+        <v>0.0456962905521156</v>
       </c>
       <c r="N54" t="n">
-        <v>0.916918965074183</v>
+        <v>0.0666733598627272</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5286,7 +5278,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5325,11 +5317,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5340,31 +5332,31 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.5</v>
+        <v>0.762000517934219</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>7.515</v>
+        <v>0.625</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0017318634423897</v>
+        <v>0.0093724528301886</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.036155796453029</v>
+        <v>-0.0064973264553976</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0486095599259254</v>
+        <v>0.0213495643121556</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.0230454217217528</v>
+        <v>1.49959245283019</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5373,7 +5365,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5427,7 +5419,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.918284881764469</v>
+        <v>0.654750942367696</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5442,16 +5434,16 @@
         <v>131.43</v>
       </c>
       <c r="K56" t="n">
-        <v>1.21230440967283</v>
+        <v>0.501717032967033</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.383039708959883</v>
+        <v>-0.829748454768611</v>
       </c>
       <c r="M56" t="n">
-        <v>2.1798486870105</v>
+        <v>1.49771962723785</v>
       </c>
       <c r="N56" t="n">
-        <v>0.922395503060816</v>
+        <v>0.381737071419792</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5460,7 +5452,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5490,6 +5482,93 @@
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>15</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.975627539630147</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.06592216582064291</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0049884907022104</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.137207201151814</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.883675145048832</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
+++ b/trend_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -148,58 +148,49 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
     <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -587,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,38 +672,38 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.144959226971285</v>
+        <v>0.09644767562499799</v>
       </c>
       <c r="G2">
-        <v>0.0175438596491228</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H2">
-        <v>0.754385964912281</v>
+        <v>0.7962962962962959</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.85</v>
+        <v>2.175</v>
       </c>
       <c r="K2">
-        <v>0.116649210164835</v>
+        <v>0.356603183001209</v>
       </c>
       <c r="L2">
-        <v>-0.0981300402607039</v>
+        <v>-0.0644879376233711</v>
       </c>
       <c r="M2">
-        <v>0.492867418643326</v>
+        <v>0.742962185436767</v>
       </c>
       <c r="N2">
-        <v>6.30536271161271</v>
+        <v>16.3955486437338</v>
       </c>
       <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
       <c r="Q2">
         <v>1797584</v>
       </c>
@@ -720,19 +711,19 @@
         <v>5495986</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
         <v>63</v>
-      </c>
-      <c r="U2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -752,37 +743,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.999632618815683</v>
+        <v>0.9502546005389541</v>
       </c>
       <c r="G3">
-        <v>0.0188679245283019</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="H3">
-        <v>0.792452830188679</v>
+        <v>0.73469387755102</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3">
-        <v>0.506324548476107</v>
+        <v>0.296515442987926</v>
       </c>
       <c r="L3">
-        <v>0.279047234871291</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.736029920177517</v>
+        <v>0.539224840653844</v>
       </c>
       <c r="N3">
-        <v>12.0553463922883</v>
+        <v>6.89570797646338</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q3">
         <v>1797584</v>
@@ -791,19 +782,19 @@
         <v>5495986</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="s">
         <v>64</v>
-      </c>
-      <c r="V3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -823,37 +814,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.376288138426792</v>
+        <v>0.820602321056529</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.907407407407407</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.96</v>
+        <v>10.95</v>
       </c>
       <c r="K4">
-        <v>-0.0150515109890107</v>
+        <v>0.0501717032967031</v>
       </c>
       <c r="L4">
-        <v>-0.06875068739684161</v>
+        <v>-0.0164379358919646</v>
       </c>
       <c r="M4">
-        <v>0.0601326907229615</v>
+        <v>0.0849258498803651</v>
       </c>
       <c r="N4">
-        <v>-0.137331304644258</v>
+        <v>0.458189071202768</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q4">
         <v>1797584</v>
@@ -862,19 +853,19 @@
         <v>5495986</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
         <v>65</v>
-      </c>
-      <c r="W4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -894,37 +885,37 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>0.120639222046109</v>
+        <v>0.676382286233374</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.214285714285714</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0003865079365079</v>
       </c>
       <c r="M5">
-        <v>0.0005940027447056</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>1797584</v>
@@ -933,19 +924,19 @@
         <v>5495986</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -959,40 +950,40 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.969146654985844</v>
+        <v>0.228839969092147</v>
       </c>
       <c r="G6">
         <v>0.0178571428571429</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>34</v>
+        <v>36.4</v>
       </c>
       <c r="K6">
-        <v>-4.5154532967033</v>
+        <v>2.0598830958003</v>
       </c>
       <c r="L6">
-        <v>-10.5211277709918</v>
+        <v>-3.45941635236017</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.19216774662743</v>
       </c>
       <c r="N6">
-        <v>-13.2807449903038</v>
+        <v>5.65901949395688</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
         <v>50</v>
@@ -1004,19 +995,19 @@
         <v>5495986</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1036,16 +1027,16 @@
         <v>42</v>
       </c>
       <c r="G7">
-        <v>0.981481481481482</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="H7">
-        <v>0.0555555555555556</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
         <v>51</v>
@@ -1057,19 +1048,19 @@
         <v>5495986</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,13 +1080,13 @@
         <v>43</v>
       </c>
       <c r="F8">
-        <v>0.997441174302336</v>
+        <v>0.998920502716792</v>
       </c>
       <c r="G8">
-        <v>0.767857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H8">
-        <v>0.107142857142857</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1116,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q8">
         <v>1797584</v>
@@ -1128,19 +1119,19 @@
         <v>5495986</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,34 +1151,34 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.322206166884906</v>
+        <v>0.961135649744439</v>
       </c>
       <c r="G9">
-        <v>0.0178571428571429</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H9">
-        <v>0.732142857142857</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0565</v>
+        <v>0.0525</v>
       </c>
       <c r="K9">
-        <v>0.0005017170329669999</v>
+        <v>-0.0035120192307692</v>
       </c>
       <c r="L9">
-        <v>-0.0029871242635075</v>
+        <v>-0.007053054916228</v>
       </c>
       <c r="M9">
-        <v>0.0059033946558706</v>
+        <v>-0.0006316393811329</v>
       </c>
       <c r="N9">
-        <v>0.887994748614218</v>
+        <v>-6.68956043956044</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
         <v>47</v>
@@ -1199,19 +1190,19 @@
         <v>5495986</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1231,37 +1222,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.09321903117557991</v>
+        <v>0.853948375145711</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.740740740740741</v>
+        <v>0.75</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>7.505</v>
       </c>
       <c r="K10">
-        <v>-0.0389839901477832</v>
+        <v>0.0280096948225677</v>
       </c>
       <c r="L10">
-        <v>-0.0829133541942941</v>
+        <v>-0.0159280583014823</v>
       </c>
       <c r="M10">
-        <v>0.0109648220749605</v>
+        <v>0.0679400160833601</v>
       </c>
       <c r="N10">
-        <v>-0.5197865353037761</v>
+        <v>0.373213788441942</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1797584</v>
@@ -1270,16 +1261,16 @@
         <v>5495986</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,37 +1290,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.591519339142304</v>
+        <v>0.98137872770201</v>
       </c>
       <c r="G11">
         <v>0.0178571428571429</v>
       </c>
       <c r="H11">
-        <v>0.714285714285714</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="K11">
-        <v>-0.0004969387755102</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="L11">
-        <v>-0.0040137362637362</v>
+        <v>-0.0097306018395434</v>
       </c>
       <c r="M11">
-        <v>0.0039902171852772</v>
+        <v>-0.00242837574149</v>
       </c>
       <c r="N11">
-        <v>-0.764521193092622</v>
+        <v>-9.122127872127869</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1797584</v>
@@ -1338,19 +1329,19 @@
         <v>5495986</v>
       </c>
       <c r="S11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" t="s">
         <v>65</v>
-      </c>
-      <c r="W11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,37 +1361,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.92371249228105</v>
+        <v>0.758904169522531</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.214285714285714</v>
+        <v>0.267857142857143</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K12">
-        <v>-0.0033447802197802</v>
+        <v>-0.0033234758871701</v>
       </c>
       <c r="L12">
-        <v>-0.009938775510203999</v>
+        <v>-0.0066483238639362</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0033986347364225</v>
       </c>
       <c r="N12">
-        <v>-3.04070929070928</v>
+        <v>-3.32347588717015</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1797584</v>
@@ -1409,19 +1400,19 @@
         <v>5495986</v>
       </c>
       <c r="S12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" t="s">
         <v>65</v>
-      </c>
-      <c r="W12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.0535049613654863</v>
+        <v>0.301243784585263</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.25</v>
+        <v>0.267857142857143</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1456,22 +1447,22 @@
         <v>0.011</v>
       </c>
       <c r="K13">
-        <v>0.0003537570916397</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0002293839867629</v>
       </c>
       <c r="M13">
-        <v>0.000862455726092</v>
+        <v>0.0006429168050847</v>
       </c>
       <c r="N13">
-        <v>3.21597356036132</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1797584</v>
@@ -1480,19 +1471,19 @@
         <v>5495986</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
         <v>65</v>
-      </c>
-      <c r="W13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,37 +1503,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.999772995647503</v>
+        <v>0.961436513361411</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.821428571428571</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="K14">
-        <v>-0.08723436113575871</v>
+        <v>-0.0408436388612032</v>
       </c>
       <c r="L14">
-        <v>-0.137412507421821</v>
+        <v>-0.07530340499290809</v>
       </c>
       <c r="M14">
-        <v>-0.0460405076744555</v>
+        <v>-0.0034808990111325</v>
       </c>
       <c r="N14">
-        <v>-15.3042738834664</v>
+        <v>-7.42611615658239</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1797584</v>
@@ -1551,19 +1542,19 @@
         <v>5495986</v>
       </c>
       <c r="S14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,37 +1574,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0124271058557625</v>
+        <v>0.0018364739648177</v>
       </c>
       <c r="G15">
-        <v>0.0087719298245614</v>
+        <v>0.009090909090909</v>
       </c>
       <c r="H15">
-        <v>0.728070175438597</v>
+        <v>0.754545454545455</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.675</v>
+        <v>1.825</v>
       </c>
       <c r="K15">
-        <v>0.075257554945055</v>
+        <v>0.124743852459016</v>
       </c>
       <c r="L15">
-        <v>0.0150425124552992</v>
+        <v>0.0441491293618233</v>
       </c>
       <c r="M15">
-        <v>0.166561230872707</v>
+        <v>0.235636146984743</v>
       </c>
       <c r="N15">
-        <v>4.49298835492866</v>
+        <v>6.83527958679542</v>
       </c>
       <c r="O15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1797584</v>
@@ -1622,19 +1613,19 @@
         <v>5495986</v>
       </c>
       <c r="S15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
         <v>63</v>
-      </c>
-      <c r="U15" t="s">
-        <v>64</v>
-      </c>
-      <c r="V15" t="s">
-        <v>65</v>
-      </c>
-      <c r="W15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,40 +1642,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.156762472138156</v>
+        <v>0.420971108016766</v>
       </c>
       <c r="G16">
-        <v>0.0754716981132075</v>
+        <v>0.019047619047619</v>
       </c>
       <c r="H16">
-        <v>0.69811320754717</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>4.54</v>
+        <v>4.4</v>
       </c>
       <c r="K16">
-        <v>-0.0813794233289646</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.23520870742429</v>
+        <v>-0.17302117623329</v>
       </c>
       <c r="M16">
-        <v>0.0481976200666916</v>
+        <v>0.13727893988391</v>
       </c>
       <c r="N16">
-        <v>-1.79249831121067</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q16">
         <v>1797584</v>
@@ -1693,19 +1684,19 @@
         <v>5495986</v>
       </c>
       <c r="S16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" t="s">
         <v>64</v>
-      </c>
-      <c r="V16" t="s">
-        <v>65</v>
-      </c>
-      <c r="W16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,37 +1716,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.821272087047463</v>
+        <v>0.979107070605768</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.858407079646018</v>
+        <v>0.849557522123894</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.87</v>
+        <v>10.88</v>
       </c>
       <c r="K17">
-        <v>0.0191099863512284</v>
+        <v>0.036226440484188</v>
       </c>
       <c r="L17">
-        <v>-0.0116410383403292</v>
+        <v>0.008797813522501301</v>
       </c>
       <c r="M17">
-        <v>0.0459477507220638</v>
+        <v>0.0602060439560431</v>
       </c>
       <c r="N17">
-        <v>0.175804842237612</v>
+        <v>0.332963607391433</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>1797584</v>
@@ -1764,19 +1755,19 @@
         <v>5495986</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" t="s">
         <v>65</v>
-      </c>
-      <c r="W17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.653637198448367</v>
+        <v>0.9754820016842199</v>
       </c>
       <c r="G18">
         <v>0.0344827586206897</v>
@@ -1811,22 +1802,22 @@
         <v>0.008</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-0.0001171249449353</v>
       </c>
       <c r="L18">
-        <v>-0.0001288359788359</v>
+        <v>-0.0002562545856022</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-1.46406181169184</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1797584</v>
@@ -1835,19 +1826,19 @@
         <v>5495986</v>
       </c>
       <c r="S18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,13 +1858,13 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.979311442195806</v>
+        <v>0.958574770545384</v>
       </c>
       <c r="G19">
         <v>0.0086206896551724</v>
       </c>
       <c r="H19">
-        <v>0.422413793103448</v>
+        <v>0.525862068965517</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1882,22 +1873,22 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>-1.66173794358508</v>
+        <v>-1.84290273556231</v>
       </c>
       <c r="L19">
-        <v>-3.0103021978022</v>
+        <v>-3.66414581609325</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-4.26086652201302</v>
+        <v>-4.72539162964695</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1797584</v>
@@ -1906,19 +1897,19 @@
         <v>5495986</v>
       </c>
       <c r="S19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>0.963302752293578</v>
+        <v>0.981651376146789</v>
       </c>
       <c r="H20">
-        <v>0.06422018348623849</v>
+        <v>0.0458715596330275</v>
       </c>
       <c r="I20">
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" t="s">
         <v>51</v>
@@ -1959,19 +1950,19 @@
         <v>5495986</v>
       </c>
       <c r="S20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,13 +1982,13 @@
         <v>43</v>
       </c>
       <c r="F21">
-        <v>0.94117995164937</v>
+        <v>0.999452252853128</v>
       </c>
       <c r="G21">
-        <v>0.663793103448276</v>
+        <v>0.767241379310345</v>
       </c>
       <c r="H21">
-        <v>0.0775862068965517</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2018,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1797584</v>
@@ -2030,19 +2021,19 @@
         <v>5495986</v>
       </c>
       <c r="S21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2059,16 +2050,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0009465028078448</v>
+        <v>0.248545563988971</v>
       </c>
       <c r="G22">
-        <v>0.112068965517241</v>
+        <v>0.0775862068965517</v>
       </c>
       <c r="H22">
-        <v>0.637931034482759</v>
+        <v>0.629310344827586</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2077,22 +2068,22 @@
         <v>0.051</v>
       </c>
       <c r="K22">
-        <v>0.0024172181652213</v>
+        <v>0.0004969387755102</v>
       </c>
       <c r="L22">
-        <v>0.0011966188115454</v>
+        <v>-0.000878837189085</v>
       </c>
       <c r="M22">
-        <v>0.0038774190114079</v>
+        <v>0.001881725331072</v>
       </c>
       <c r="N22">
-        <v>4.73964346121835</v>
+        <v>0.974389755902362</v>
       </c>
       <c r="O22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1797584</v>
@@ -2101,19 +2092,19 @@
         <v>5495986</v>
       </c>
       <c r="S22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,37 +2124,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.001070612126694</v>
+        <v>0.041697717410253</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.614678899082569</v>
+        <v>0.63302752293578</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.55</v>
+        <v>7.57</v>
       </c>
       <c r="K23">
-        <v>-0.0238552375264826</v>
+        <v>-0.0152452635017421</v>
       </c>
       <c r="L23">
-        <v>-0.0380299975602193</v>
+        <v>-0.0316730031048056</v>
       </c>
       <c r="M23">
-        <v>-0.0111031366296251</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-0.315963410946789</v>
+        <v>-0.201390535029619</v>
       </c>
       <c r="O23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q23">
         <v>1797584</v>
@@ -2172,16 +2163,16 @@
         <v>5495986</v>
       </c>
       <c r="S23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,40 +2189,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>0.0121950057267778</v>
+        <v>0.393081655519116</v>
       </c>
       <c r="G24">
-        <v>0.0517241379310345</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="H24">
-        <v>0.551724137931034</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0.055</v>
       </c>
       <c r="K24">
-        <v>0.0019991789819376</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.000669118462904</v>
+        <v>-0.0011206928874884</v>
       </c>
       <c r="M24">
-        <v>0.0039173351052049</v>
+        <v>0.0016711044953726</v>
       </c>
       <c r="N24">
-        <v>3.63487087625019</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q24">
         <v>1797584</v>
@@ -2240,19 +2231,19 @@
         <v>5495986</v>
       </c>
       <c r="S24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
+        <v>62</v>
+      </c>
+      <c r="W24" t="s">
         <v>65</v>
-      </c>
-      <c r="W24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2272,37 +2263,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.9529253608499541</v>
+        <v>0.9416612754207651</v>
       </c>
       <c r="G25">
         <v>0.0086206896551724</v>
       </c>
       <c r="H25">
-        <v>0.275862068965517</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.116</v>
+        <v>0.11</v>
       </c>
       <c r="K25">
-        <v>-0.0013940839694656</v>
+        <v>-0.001223804447152</v>
       </c>
       <c r="L25">
-        <v>-0.0040055959057454</v>
+        <v>-0.0033447802197802</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>-1.20179652540142</v>
+        <v>-1.11254949741091</v>
       </c>
       <c r="O25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q25">
         <v>1797584</v>
@@ -2311,19 +2302,19 @@
         <v>5495986</v>
       </c>
       <c r="S25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
+        <v>62</v>
+      </c>
+      <c r="W25" t="s">
         <v>65</v>
-      </c>
-      <c r="W25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2343,13 +2334,13 @@
         <v>41</v>
       </c>
       <c r="F26">
-        <v>0.328307745309221</v>
+        <v>0.6802471992668579</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.163793103448276</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2361,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0001907064583167</v>
       </c>
       <c r="M26">
-        <v>0.0001688626907073</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q26">
         <v>1797584</v>
@@ -2382,19 +2373,19 @@
         <v>5495986</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
+        <v>62</v>
+      </c>
+      <c r="W26" t="s">
         <v>65</v>
-      </c>
-      <c r="W26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2414,37 +2405,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.979337665325814</v>
+        <v>0.9965740544264921</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.684210526315789</v>
+        <v>0.710526315789474</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K27">
-        <v>-0.0251126814362108</v>
+        <v>-0.0313856068743287</v>
       </c>
       <c r="L27">
-        <v>-0.0517194447296085</v>
+        <v>-0.0550001955647505</v>
       </c>
       <c r="M27">
-        <v>-0.0055079373649683</v>
+        <v>-0.0123429683744382</v>
       </c>
       <c r="N27">
-        <v>-4.01802902979373</v>
+        <v>-5.06219465714979</v>
       </c>
       <c r="O27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1797584</v>
@@ -2453,19 +2444,19 @@
         <v>5495986</v>
       </c>
       <c r="S27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2485,37 +2476,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0001432476122084</v>
+        <v>3.89329971725138E-05</v>
       </c>
       <c r="G28">
         <v>0.0059171597633136</v>
       </c>
       <c r="H28">
-        <v>0.650887573964497</v>
+        <v>0.656804733727811</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K28">
-        <v>0.07319308583667419</v>
+        <v>0.09096745104774991</v>
       </c>
       <c r="L28">
-        <v>0.0381128657536106</v>
+        <v>0.044336986754541</v>
       </c>
       <c r="M28">
-        <v>0.125570949973786</v>
+        <v>0.150154793225942</v>
       </c>
       <c r="N28">
-        <v>4.57456786479214</v>
+        <v>5.35102653222058</v>
       </c>
       <c r="O28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1797584</v>
@@ -2524,19 +2515,19 @@
         <v>5495986</v>
       </c>
       <c r="S28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" t="s">
+        <v>61</v>
+      </c>
+      <c r="V28" t="s">
+        <v>62</v>
+      </c>
+      <c r="W28" t="s">
         <v>63</v>
-      </c>
-      <c r="U28" t="s">
-        <v>64</v>
-      </c>
-      <c r="V28" t="s">
-        <v>65</v>
-      </c>
-      <c r="W28" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2556,37 +2547,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.081334399680096</v>
+        <v>0.0085265958068919</v>
       </c>
       <c r="G29">
-        <v>0.111111111111111</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="H29">
-        <v>0.580246913580247</v>
+        <v>0.578616352201258</v>
       </c>
       <c r="I29">
         <v>7</v>
       </c>
       <c r="J29">
-        <v>4.675</v>
+        <v>4.6</v>
       </c>
       <c r="K29">
-        <v>-0.01521875</v>
+        <v>-0.0475792444637429</v>
       </c>
       <c r="L29">
-        <v>-0.0880851127353119</v>
+        <v>-0.117880655511647</v>
       </c>
       <c r="M29">
-        <v>0.0485928983403143</v>
+        <v>0.0169722902837674</v>
       </c>
       <c r="N29">
-        <v>-0.325534759358289</v>
+        <v>-1.03433140138572</v>
       </c>
       <c r="O29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q29">
         <v>1797584</v>
@@ -2595,19 +2586,19 @@
         <v>5495986</v>
       </c>
       <c r="S29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
+        <v>61</v>
+      </c>
+      <c r="V29" t="s">
+        <v>62</v>
+      </c>
+      <c r="W29" t="s">
         <v>64</v>
-      </c>
-      <c r="V29" t="s">
-        <v>65</v>
-      </c>
-      <c r="W29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2627,37 +2618,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.775309295241268</v>
+        <v>0.979933460471702</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.782352941176471</v>
+        <v>0.7906976744186049</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.795</v>
+        <v>10.76</v>
       </c>
       <c r="K30">
-        <v>0.0125257201646091</v>
+        <v>0.0267337602927722</v>
       </c>
       <c r="L30">
-        <v>-0.0100370085410499</v>
+        <v>0.0067691035004865</v>
       </c>
       <c r="M30">
-        <v>0.0303096615431265</v>
+        <v>0.046396817052042</v>
       </c>
       <c r="N30">
-        <v>0.116032609213609</v>
+        <v>0.248455021308292</v>
       </c>
       <c r="O30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q30">
         <v>1797584</v>
@@ -2666,19 +2657,19 @@
         <v>5495986</v>
       </c>
       <c r="S30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
+        <v>62</v>
+      </c>
+      <c r="W30" t="s">
         <v>65</v>
-      </c>
-      <c r="W30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2698,13 +2689,13 @@
         <v>43</v>
       </c>
       <c r="F31">
-        <v>0.597712496475739</v>
+        <v>0.969361096059423</v>
       </c>
       <c r="G31">
-        <v>0.0342857142857143</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H31">
-        <v>0.0742857142857143</v>
+        <v>0.0738636363636364</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2716,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-0.0001391428571428</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2725,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1797584</v>
@@ -2737,19 +2728,19 @@
         <v>5495986</v>
       </c>
       <c r="S31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2766,40 +2757,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>0.927837205771963</v>
+        <v>0.986678028884859</v>
       </c>
       <c r="G32">
-        <v>0.0057142857142857</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H32">
-        <v>0.457142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>40</v>
+        <v>43.5</v>
       </c>
       <c r="K32">
-        <v>-0.692325577326331</v>
+        <v>-1.33791208791209</v>
       </c>
       <c r="L32">
-        <v>-1.87932528635474</v>
+        <v>-2.32821442875301</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.0585822833894795</v>
       </c>
       <c r="N32">
-        <v>-1.73081394331583</v>
+        <v>-3.0756599722117</v>
       </c>
       <c r="O32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1797584</v>
@@ -2808,19 +2799,19 @@
         <v>5495986</v>
       </c>
       <c r="S32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2837,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33">
-        <v>0.988464892254685</v>
+        <v>0.976267713230364</v>
       </c>
       <c r="G33">
-        <v>0.94047619047619</v>
+        <v>0.952662721893491</v>
       </c>
       <c r="H33">
-        <v>0.0833333333333333</v>
+        <v>0.0710059171597633</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -2867,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1797584</v>
@@ -2879,19 +2870,19 @@
         <v>5495986</v>
       </c>
       <c r="S33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,13 +2902,13 @@
         <v>43</v>
       </c>
       <c r="F34">
-        <v>0.593581252732899</v>
+        <v>0.813776096993428</v>
       </c>
       <c r="G34">
-        <v>0.694610778443114</v>
+        <v>0.710227272727273</v>
       </c>
       <c r="H34">
-        <v>0.0598802395209581</v>
+        <v>0.0568181818181818</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2938,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q34">
         <v>1797584</v>
@@ -2950,19 +2941,19 @@
         <v>5495986</v>
       </c>
       <c r="S34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2979,40 +2970,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F35">
-        <v>0.0516935034869017</v>
+        <v>0.291507114956836</v>
       </c>
       <c r="G35">
-        <v>0.0958083832335329</v>
+        <v>0.102272727272727</v>
       </c>
       <c r="H35">
-        <v>0.574850299401198</v>
+        <v>0.5625</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="K35">
-        <v>0.0007660258358662</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-0.0003554144179484</v>
       </c>
       <c r="M35">
-        <v>0.0015066316065352</v>
+        <v>0.0010048332962835</v>
       </c>
       <c r="N35">
-        <v>1.4185663627153</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1797584</v>
@@ -3021,19 +3012,19 @@
         <v>5495986</v>
       </c>
       <c r="S35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,37 +3044,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.1151104345165</v>
+        <v>0.155325189012623</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.560240963855422</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.565</v>
+        <v>7.58</v>
       </c>
       <c r="K36">
-        <v>-0.0071477495107632</v>
+        <v>-0.0054151252884932</v>
       </c>
       <c r="L36">
-        <v>-0.0165229351231963</v>
+        <v>-0.0138090935434499</v>
       </c>
       <c r="M36">
-        <v>0.0025195279316943</v>
+        <v>0.0034010468000633</v>
       </c>
       <c r="N36">
-        <v>-0.09448446147737299</v>
+        <v>-0.0714396476054522</v>
       </c>
       <c r="O36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q36">
         <v>1797584</v>
@@ -3092,16 +3083,16 @@
         <v>5495986</v>
       </c>
       <c r="S36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3118,40 +3109,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F37">
-        <v>0.145425621612324</v>
+        <v>0.458828480293103</v>
       </c>
       <c r="G37">
-        <v>0.04</v>
+        <v>0.0397727272727273</v>
       </c>
       <c r="H37">
-        <v>0.605714285714286</v>
+        <v>0.5965909090909089</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37">
-        <v>0.061</v>
+        <v>0.05825</v>
       </c>
       <c r="K37">
-        <v>0.0005204836621193</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>-0.000248477079692</v>
+        <v>-0.0008538520805754</v>
       </c>
       <c r="M37">
-        <v>0.0012541978537752</v>
+        <v>0.0007820298931121</v>
       </c>
       <c r="N37">
-        <v>0.853251905113647</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q37">
         <v>1797584</v>
@@ -3160,19 +3151,19 @@
         <v>5495986</v>
       </c>
       <c r="S37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
+        <v>62</v>
+      </c>
+      <c r="W37" t="s">
         <v>65</v>
-      </c>
-      <c r="W37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3192,37 +3183,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.999523057186537</v>
+        <v>0.998582457655797</v>
       </c>
       <c r="G38">
-        <v>0.0114285714285714</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H38">
-        <v>0.365714285714286</v>
+        <v>0.346590909090909</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.12</v>
+        <v>0.117</v>
       </c>
       <c r="K38">
-        <v>-0.0019294113593104</v>
+        <v>-0.0016670470104974</v>
       </c>
       <c r="L38">
-        <v>-0.0031212306418903</v>
+        <v>-0.0028759842519685</v>
       </c>
       <c r="M38">
-        <v>-0.0007893355724598</v>
+        <v>-0.0003999427445476</v>
       </c>
       <c r="N38">
-        <v>-1.60784279942539</v>
+        <v>-1.42482650469871</v>
       </c>
       <c r="O38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q38">
         <v>1797584</v>
@@ -3231,19 +3222,19 @@
         <v>5495986</v>
       </c>
       <c r="S38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V38" t="s">
+        <v>62</v>
+      </c>
+      <c r="W38" t="s">
         <v>65</v>
-      </c>
-      <c r="W38" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3260,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F39">
-        <v>0.965196488948533</v>
+        <v>0.824402746675457</v>
       </c>
       <c r="G39">
-        <v>0.0228571428571429</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H39">
-        <v>0.188571428571429</v>
+        <v>0.170454545454545</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3278,22 +3269,22 @@
         <v>0.011</v>
       </c>
       <c r="K39">
-        <v>-8.594117647058821E-05</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0002164693902602</v>
+        <v>-0.000148234577922</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>-0.781283422459892</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q39">
         <v>1797584</v>
@@ -3302,19 +3293,19 @@
         <v>5495986</v>
       </c>
       <c r="S39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V39" t="s">
+        <v>62</v>
+      </c>
+      <c r="W39" t="s">
         <v>65</v>
-      </c>
-      <c r="W39" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3334,37 +3325,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.993793448541507</v>
+        <v>0.983137666675812</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.606936416184971</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.67</v>
+        <v>0.625</v>
       </c>
       <c r="K40">
-        <v>-0.0166173794358508</v>
+        <v>-0.0130858798735511</v>
       </c>
       <c r="L40">
-        <v>-0.026126498326942</v>
+        <v>-0.0216122859811839</v>
       </c>
       <c r="M40">
-        <v>-0.0052705432220666</v>
+        <v>-0.0025025693730729</v>
       </c>
       <c r="N40">
-        <v>-2.48020588594788</v>
+        <v>-2.09374077976818</v>
       </c>
       <c r="O40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <v>1797584</v>
@@ -3373,19 +3364,19 @@
         <v>5495986</v>
       </c>
       <c r="S40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3405,37 +3396,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.919983975755872</v>
+        <v>0.821089876600261</v>
       </c>
       <c r="G41">
-        <v>0.109947643979058</v>
+        <v>0.105527638190955</v>
       </c>
       <c r="H41">
-        <v>0.565445026178011</v>
+        <v>0.552763819095477</v>
       </c>
       <c r="I41">
         <v>9</v>
       </c>
       <c r="J41">
-        <v>4.49</v>
+        <v>4.42</v>
       </c>
       <c r="K41">
-        <v>0.0675316957210777</v>
+        <v>0.0478702490170378</v>
       </c>
       <c r="L41">
-        <v>0.0085045932144442</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0.128465960522553</v>
+        <v>0.102050490144862</v>
       </c>
       <c r="N41">
-        <v>1.5040466753024</v>
+        <v>1.08303730807778</v>
       </c>
       <c r="O41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q41">
         <v>1797584</v>
@@ -3444,19 +3435,19 @@
         <v>5495986</v>
       </c>
       <c r="S41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
+        <v>61</v>
+      </c>
+      <c r="V41" t="s">
+        <v>62</v>
+      </c>
+      <c r="W41" t="s">
         <v>64</v>
-      </c>
-      <c r="V41" t="s">
-        <v>65</v>
-      </c>
-      <c r="W41" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3464,49 +3455,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.985806331837852</v>
+        <v>0.714209352906006</v>
       </c>
       <c r="G42">
-        <v>0.0388349514563107</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.0970873786407767</v>
+        <v>0.784210526315789</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.008500000000000001</v>
+        <v>10.825</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.0075257554945053</v>
       </c>
       <c r="L42">
-        <v>-0.0001272605238787</v>
+        <v>-0.0100491173481995</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>0.0243691484914312</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>0.06952199071136569</v>
       </c>
       <c r="O42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1797584</v>
@@ -3515,19 +3506,19 @@
         <v>5495986</v>
       </c>
       <c r="S42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V42" t="s">
+        <v>62</v>
+      </c>
+      <c r="W42" t="s">
         <v>65</v>
-      </c>
-      <c r="W42" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3535,49 +3526,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.963250890826198</v>
+        <v>0.999545078011847</v>
       </c>
       <c r="G43">
-        <v>0.014218009478673</v>
+        <v>0.0458715596330275</v>
       </c>
       <c r="H43">
-        <v>0.42654028436019</v>
+        <v>0.09174311926605511</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>41</v>
+        <v>0.008</v>
       </c>
       <c r="K43">
-        <v>-0.7147749510763211</v>
+        <v>-9.73480810234542E-05</v>
       </c>
       <c r="L43">
-        <v>-1.61261034759323</v>
+        <v>-0.0001581168831168</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>-1.74335353921054</v>
+        <v>-1.21685101279318</v>
       </c>
       <c r="O43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q43">
         <v>1797584</v>
@@ -3586,19 +3577,19 @@
         <v>5495986</v>
       </c>
       <c r="S43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3606,49 +3597,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.9757759596097551</v>
+        <v>0.947135002882456</v>
       </c>
       <c r="G44">
-        <v>0.939086294416244</v>
+        <v>0.0134529147982063</v>
       </c>
       <c r="H44">
-        <v>0.0862944162436548</v>
+        <v>0.466367713004484</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>42.4</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-0.610899631144675</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-1.52636379606714</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-1.44080101685065</v>
       </c>
       <c r="O44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q44">
         <v>1797584</v>
@@ -3657,19 +3648,19 @@
         <v>5495986</v>
       </c>
       <c r="S44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3677,49 +3668,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45">
-        <v>0.479283879346681</v>
+        <v>0.98538248077823</v>
       </c>
       <c r="G45">
-        <v>0.0885416666666667</v>
+        <v>0.942583732057416</v>
       </c>
       <c r="H45">
-        <v>0.53125</v>
+        <v>0.0813397129186603</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>0.056</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0006663464785712</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0.0007870776334564</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q45">
         <v>1797584</v>
@@ -3728,19 +3719,19 @@
         <v>5495986</v>
       </c>
       <c r="S45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3748,46 +3739,46 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>0.57051983363317</v>
+        <v>0.783765293294307</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.0931372549019608</v>
       </c>
       <c r="H46">
-        <v>0.532967032967033</v>
+        <v>0.514705882352941</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>7.54</v>
+        <v>0.055</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>-0.0001825768637506</v>
       </c>
       <c r="L46">
-        <v>-0.0077338001198716</v>
+        <v>-0.0009215718308024</v>
       </c>
       <c r="M46">
-        <v>0.0101281193742203</v>
+        <v>0.0002776559888846</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>-0.33195793409214</v>
       </c>
       <c r="O46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" t="s">
         <v>49</v>
@@ -3799,16 +3790,19 @@
         <v>5495986</v>
       </c>
       <c r="S46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V46" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="W46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3816,49 +3810,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.755386296717339</v>
+        <v>0.7666581472899719</v>
       </c>
       <c r="G47">
-        <v>0.0388349514563107</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.567961165048544</v>
+        <v>0.515463917525773</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.06225</v>
+        <v>7.56</v>
       </c>
       <c r="K47">
-        <v>-0.00024838375456</v>
+        <v>0.0035052783109404</v>
       </c>
       <c r="L47">
-        <v>-0.001134337384063</v>
+        <v>-0.0043452775635213</v>
       </c>
       <c r="M47">
-        <v>0.0004530334335091</v>
+        <v>0.0117939696602218</v>
       </c>
       <c r="N47">
-        <v>-0.399010047486014</v>
+        <v>0.0463661152240797</v>
       </c>
       <c r="O47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="Q47">
         <v>1797584</v>
@@ -3867,19 +3861,16 @@
         <v>5495986</v>
       </c>
       <c r="S47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V47" t="s">
-        <v>65</v>
-      </c>
-      <c r="W47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3887,7 +3878,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -3899,37 +3890,37 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.999399945430556</v>
+        <v>0.912978240155498</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0412844036697248</v>
       </c>
       <c r="H48">
-        <v>0.559808612440191</v>
+        <v>0.55045871559633</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>0.65</v>
+        <v>0.0612</v>
       </c>
       <c r="K48">
-        <v>-0.0166173794358508</v>
+        <v>-0.00063973727422</v>
       </c>
       <c r="L48">
-        <v>-0.0250057709146515</v>
+        <v>-0.0013362138152958</v>
       </c>
       <c r="M48">
-        <v>-0.0081504369755459</v>
+        <v>6.533472394303069E-05</v>
       </c>
       <c r="N48">
-        <v>-2.55651991320781</v>
+        <v>-1.04532234349679</v>
       </c>
       <c r="O48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q48">
         <v>1797584</v>
@@ -3938,69 +3929,69 @@
         <v>5495986</v>
       </c>
       <c r="S48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V48" t="s">
+        <v>62</v>
+      </c>
+      <c r="W48" t="s">
         <v>65</v>
       </c>
-      <c r="W48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>0.993975296310326</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0194174757281553</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>0.320388349514563</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0.625</v>
+        <v>0.12</v>
       </c>
       <c r="K49">
-        <v>0.0007314753004005</v>
+        <v>-0.0010406852529281</v>
       </c>
       <c r="L49">
-        <v>-0.0493394285519677</v>
+        <v>-0.0020060657332818</v>
       </c>
       <c r="M49">
-        <v>0.0110712531703329</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0.117036048064086</v>
+        <v>-0.867237710773494</v>
       </c>
       <c r="O49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q49">
         <v>1797584</v>
@@ -4009,27 +4000,30 @@
         <v>5495986</v>
       </c>
       <c r="S49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V49" t="s">
+        <v>62</v>
+      </c>
+      <c r="W49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4038,37 +4032,37 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.231216363225238</v>
+        <v>0.996539635698061</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.0242718446601942</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.179611650485437</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>131</v>
+        <v>0.011</v>
       </c>
       <c r="K50">
-        <v>-2.18106176279727</v>
+        <v>-0.0001303068141277</v>
       </c>
       <c r="L50">
-        <v>-14.2375227285564</v>
+        <v>-0.0002244006194903</v>
       </c>
       <c r="M50">
-        <v>3.07204945619494</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>-1.66493264335669</v>
+        <v>-1.18460740116109</v>
       </c>
       <c r="O50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q50">
         <v>1797584</v>
@@ -4077,66 +4071,69 @@
         <v>5495986</v>
       </c>
       <c r="S50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V50" t="s">
+        <v>62</v>
+      </c>
+      <c r="W50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.40324797025367</v>
+        <v>0.999518753072103</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.547511312217195</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>7.553</v>
+        <v>0.65</v>
       </c>
       <c r="K51">
-        <v>-0.0355399526169461</v>
+        <v>-0.0141990624285388</v>
       </c>
       <c r="L51">
-        <v>-0.322808104058262</v>
+        <v>-0.0219909688013136</v>
       </c>
       <c r="M51">
-        <v>0.106447153370013</v>
+        <v>-0.0072307974369195</v>
       </c>
       <c r="N51">
-        <v>-0.470540879345242</v>
+        <v>-2.18447114285212</v>
       </c>
       <c r="O51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q51">
         <v>1797584</v>
@@ -4145,19 +4142,22 @@
         <v>5495986</v>
       </c>
       <c r="S51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>37</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4174,37 +4174,37 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.0439807371540401</v>
+        <v>0.693322822022627</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.6325</v>
+        <v>0.625</v>
       </c>
       <c r="K52">
-        <v>-0.0095391752577319</v>
+        <v>0.0110632172477996</v>
       </c>
       <c r="L52">
-        <v>-0.0187544085058001</v>
+        <v>-0.0493394285519677</v>
       </c>
       <c r="M52">
-        <v>-0.0022923355201466</v>
+        <v>0.0470427954020898</v>
       </c>
       <c r="N52">
-        <v>-1.50817000122244</v>
+        <v>1.77011475964794</v>
       </c>
       <c r="O52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q52">
         <v>1797584</v>
@@ -4213,19 +4213,19 @@
         <v>5495986</v>
       </c>
       <c r="S52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>38</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4242,37 +4242,37 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.326711047377659</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>132.215</v>
+        <v>136.47</v>
       </c>
       <c r="K53">
-        <v>-0.413646659116648</v>
+        <v>-2.04095725931677</v>
       </c>
       <c r="L53">
-        <v>-1.44798254740543</v>
+        <v>-14.2375227285564</v>
       </c>
       <c r="M53">
-        <v>1.63267110380146</v>
+        <v>3.53809289062543</v>
       </c>
       <c r="N53">
-        <v>-0.312859100039063</v>
+        <v>-1.49553547249708</v>
       </c>
       <c r="O53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q53">
         <v>1797584</v>
@@ -4281,19 +4281,19 @@
         <v>5495986</v>
       </c>
       <c r="S53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>39</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.570986171506239</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4322,25 +4322,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>7.525</v>
+        <v>7.56</v>
       </c>
       <c r="K54">
-        <v>0.0050171703296702</v>
+        <v>-0.0143918264411027</v>
       </c>
       <c r="L54">
-        <v>-0.0221172207500432</v>
+        <v>-0.322808104058262</v>
       </c>
       <c r="M54">
-        <v>0.0456962905521156</v>
+        <v>0.231069338626447</v>
       </c>
       <c r="N54">
-        <v>0.0666733598627272</v>
+        <v>-0.19036807461776</v>
       </c>
       <c r="O54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q54">
         <v>1797584</v>
@@ -4349,19 +4349,19 @@
         <v>5495986</v>
       </c>
       <c r="S54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4378,37 +4378,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.762000517934219</v>
+        <v>0.264799404212504</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.928571428571429</v>
+        <v>0.9</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.625</v>
+        <v>0.6325</v>
       </c>
       <c r="K55">
-        <v>0.0093724528301886</v>
+        <v>-0.0060556282722512</v>
       </c>
       <c r="L55">
-        <v>-0.0064973264553976</v>
+        <v>-0.0173275705175663</v>
       </c>
       <c r="M55">
-        <v>0.0213495643121556</v>
+        <v>0.0064537344761243</v>
       </c>
       <c r="N55">
-        <v>1.49959245283019</v>
+        <v>-0.957411584545657</v>
       </c>
       <c r="O55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P55" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="Q55">
         <v>1797584</v>
@@ -4417,19 +4417,19 @@
         <v>5495986</v>
       </c>
       <c r="S55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4446,37 +4446,37 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.654750942367696</v>
+        <v>0.5</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>131.43</v>
+        <v>132.215</v>
       </c>
       <c r="K56">
-        <v>0.501717032967033</v>
+        <v>-0.376546391752577</v>
       </c>
       <c r="L56">
-        <v>-0.829748454768611</v>
+        <v>-1.80849354923061</v>
       </c>
       <c r="M56">
-        <v>1.49771962723785</v>
+        <v>1.6896630384273</v>
       </c>
       <c r="N56">
-        <v>0.381737071419792</v>
+        <v>-0.284798541581952</v>
       </c>
       <c r="O56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q56">
         <v>1797584</v>
@@ -4485,19 +4485,19 @@
         <v>5495986</v>
       </c>
       <c r="S56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>39</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>40</v>
       </c>
       <c r="F57">
-        <v>0.975627539630147</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4526,25 +4526,25 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>7.46</v>
+        <v>7.525</v>
       </c>
       <c r="K57">
-        <v>0.06592216582064291</v>
+        <v>0.0352013142174432</v>
       </c>
       <c r="L57">
-        <v>0.0049884907022104</v>
+        <v>-0.01000051347291</v>
       </c>
       <c r="M57">
-        <v>0.137207201151814</v>
+        <v>0.0695491498343046</v>
       </c>
       <c r="N57">
-        <v>0.883675145048832</v>
+        <v>0.467791551062369</v>
       </c>
       <c r="O57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q57">
         <v>1797584</v>
@@ -4553,16 +4553,220 @@
         <v>5495986</v>
       </c>
       <c r="S57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V57" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.850947410980838</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.625</v>
+      </c>
+      <c r="K58">
+        <v>0.009532623626373599</v>
+      </c>
+      <c r="L58">
+        <v>-0.0025258420599133</v>
+      </c>
+      <c r="M58">
+        <v>0.0186807145937699</v>
+      </c>
+      <c r="N58">
+        <v>1.52521978021978</v>
+      </c>
+      <c r="O58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q58">
+        <v>1797584</v>
+      </c>
+      <c r="R58">
+        <v>5495986</v>
+      </c>
+      <c r="S58" t="s">
+        <v>59</v>
+      </c>
+      <c r="T58" t="s">
+        <v>60</v>
+      </c>
+      <c r="U58" t="s">
+        <v>61</v>
+      </c>
+      <c r="V58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.578647719730405</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>133</v>
+      </c>
+      <c r="K59">
+        <v>0.202522872192958</v>
+      </c>
+      <c r="L59">
+        <v>-1.04714919316393</v>
+      </c>
+      <c r="M59">
+        <v>1.27732830432597</v>
+      </c>
+      <c r="N59">
+        <v>0.152272836235307</v>
+      </c>
+      <c r="O59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q59">
+        <v>1797584</v>
+      </c>
+      <c r="R59">
+        <v>5495986</v>
+      </c>
+      <c r="S59" t="s">
+        <v>59</v>
+      </c>
+      <c r="T59" t="s">
+        <v>60</v>
+      </c>
+      <c r="U59" t="s">
+        <v>61</v>
+      </c>
+      <c r="V59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.991234648313473</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.51</v>
+      </c>
+      <c r="K60">
+        <v>0.068517316017316</v>
+      </c>
+      <c r="L60">
+        <v>0.0164738597245474</v>
+      </c>
+      <c r="M60">
+        <v>0.122572737908344</v>
+      </c>
+      <c r="N60">
+        <v>0.912347749897683</v>
+      </c>
+      <c r="O60" t="s">
+        <v>45</v>
+      </c>
+      <c r="P60" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60">
+        <v>1797584</v>
+      </c>
+      <c r="R60">
+        <v>5495986</v>
+      </c>
+      <c r="S60" t="s">
+        <v>59</v>
+      </c>
+      <c r="T60" t="s">
+        <v>60</v>
+      </c>
+      <c r="U60" t="s">
+        <v>61</v>
+      </c>
+      <c r="V60" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
